--- a/data/output/FV2504_FV2410/IFTSTA/21038.xlsx
+++ b/data/output/FV2504_FV2410/IFTSTA/21038.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="219">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="219">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -772,6 +772,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U120" totalsRowShown="0">
+  <autoFilter ref="A1:U120"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,7 +1091,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6934,5 +6967,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/IFTSTA/21038.xlsx
+++ b/data/output/FV2504_FV2410/IFTSTA/21038.xlsx
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3501,7 +3501,7 @@
         <v>201</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3647,7 +3647,7 @@
         <v>203</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4289,7 +4289,7 @@
         <v>206</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4981,7 +4981,7 @@
         <v>208</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5643,7 +5643,7 @@
         <v>208</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5947,7 +5947,7 @@
         <v>210</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6647,7 +6647,7 @@
         <v>212</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7309,7 +7309,7 @@
         <v>212</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7591,48 +7591,48 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5" t="s">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5" t="s">
+      <c r="N118" s="2"/>
+      <c r="O118" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P118" s="5"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V118" s="5"/>
+      <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
